--- a/biology/Histoire de la zoologie et de la botanique/William_Cooper_(conchyliologiste)/William_Cooper_(conchyliologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Cooper_(conchyliologiste)/William_Cooper_(conchyliologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Cooper (1798[1] - avril 1864) est un collectionneur et conchyliologiste américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Cooper (1798 - avril 1864) est un collectionneur et conchyliologiste américain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cooper étudie la zoologie en Europe de 1821 à 1824 puis voyage en Nouvelle-Écosse, dans le Kentucky et aux Bahamas pour y collecter des spécimens, notamment à l'aide de drague afin de récolter des coquillages. Bien qu'il ne décrive pas lui-même ses spécimens, ils sont utilisés par d'autres naturalistes comme John James Audubon (1785-1851), Charles-Lucien Bonaparte (1803-1857) et Thomas Nuttall (1786-1859).
 Il est l'un des fondateurs du New York Lyceum of Natural History (qui deviendra plus tard la New York Academy of Sciences) et le premier citoyen américain à devenir membre de la Zoological Society of London. De santé fragile, il se retire dans sa propriété du New Jersey. Il fait néanmoins encore des voyages à travers le Kentucky, en Nouvelle-Écosse et aux Bahamas. Il entreprend en 1853, une étude systématique des coquillages des États-Unis, certains de ses articles paraissent dans les Pacific Railroad Reports.
